--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1267,7 +1267,7 @@
   <dimension ref="B3:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
